--- a/plots.xlsx
+++ b/plots.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7811BD20-55B2-4449-B5DB-24B7E37C03A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C521459-32BE-4824-ABA5-8480A4043DAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>90.49376</t>
   </si>
   <si>
-    <t>Столбец1</t>
-  </si>
-  <si>
     <t>53.63657</t>
   </si>
   <si>
@@ -218,6 +215,96 @@
   </si>
   <si>
     <t>Пий-Хемский ГСУ</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>IV зона. Подтайга предгорий</t>
+  </si>
+  <si>
+    <t>III зона. Подтайга низменности</t>
+  </si>
+  <si>
+    <t>V зона. Канско-Красноярская лесостепь</t>
+  </si>
+  <si>
+    <t>II - Лесостепная зона садоводства Красноярского края</t>
+  </si>
+  <si>
+    <t>VII зона. Южная лесостепь</t>
+  </si>
+  <si>
+    <t>VIII зона. Степь предгорий на обыкновенных и южных черноземах</t>
+  </si>
+  <si>
+    <t>VI зона. Лесостепь Причулымья</t>
+  </si>
+  <si>
+    <t>I - Южная зона садоводства Красноярского края</t>
+  </si>
+  <si>
+    <t>III зона. Лесостепная</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>data[65] = { region: 'Красноярский край', gsu: 'Дзержинский ГСУ', lat: 56.78462, lon: 95.25112, zone: 'IV зона. Подтайга предгорий' };</t>
+  </si>
+  <si>
+    <t>data[68] = { region: 'Красноярский край', gsu: 'Казачинский ГСУ', lat: 57.58779, lon: 92.87861, zone: 'III зона. Подтайга низменности' };</t>
+  </si>
+  <si>
+    <t>data[70] = { region: 'Красноярский край', gsu: 'Канский ГСУ', lat: 56.03846, lon: 95.80644, zone: 'V зона. Канско-Красноярская лесостепь' };</t>
+  </si>
+  <si>
+    <t>data[803] = { region: 'Красноярский край', gsu: 'Восточно-Сибирский ГСУ', lat: 56.36002, lon: 90.49376, zone: 'II - Лесостепная зона садоводства Красноярского края' };</t>
+  </si>
+  <si>
+    <t>data[71] = { region: 'Красноярский край', gsu: 'Каратузский ГСУ', lat: 53.63657, lon: 92.75758, zone: 'VII зона. Южная лесостепь' };</t>
+  </si>
+  <si>
+    <t>data[73] = { region: 'Красноярский край', gsu: 'Краснотуранский ГСУ', lat: 54.18743, lon: 92.09193, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[76] = { region: 'Красноярский край', gsu: 'Минусинский ГСУ', lat: 53.68700, lon: 92.10517, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[77] = { region: 'Красноярский край', gsu: 'Назаровский ГСУ', lat: 55.73115, lon: 90.00579, zone: 'VI зона. Лесостепь Причулымья' };</t>
+  </si>
+  <si>
+    <t>data[78] = { region: 'Красноярский край', gsu: 'Новоселовский ГСУ', lat: 55.04879, lon: 91.00266, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[79] = { region: 'Красноярский край', gsu: 'Саянский ГСУ', lat: 55.28785, lon: 94.97179, zone: 'IV зона. Подтайга предгорий' };</t>
+  </si>
+  <si>
+    <t>data[81] = { region: 'Красноярский край', gsu: 'Сухобузимский ГСУ', lat: 56.52380, lon: 93.01264, zone: 'V зона. Канско-Красноярская лесостепь' };</t>
+  </si>
+  <si>
+    <t>data[85] = { region: 'Красноярский край', gsu: 'Ужурский ГСУ', lat: 55.16488, lon: 89.76509, zone: 'VI зона. Лесостепь Причулымья' };</t>
+  </si>
+  <si>
+    <t>data[87] = { region: 'Красноярский край', gsu: 'Уярский ГСУ', lat: 55.82482, lon: 94.51003, zone: 'V зона. Канско-Красноярская лесостепь' };</t>
+  </si>
+  <si>
+    <t>data[88] = { region: 'Республика Хакасия', gsu: 'Ширинский ГСУ', lat: 54.76515, lon: 89.98396, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[89] = { region: 'Красноярский край', gsu: 'Шушенский овощной ГСУ', lat: 53.29726, lon: 91.87155, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[728] = { region: 'Красноярский край', gsu: 'Шушенский плодово-ягодный ГСУ', lat: 53.06356, lon: 91.90596, zone: 'I - Южная зона садоводства Красноярского края' };</t>
+  </si>
+  <si>
+    <t>data[62] = { region: 'Республика Хакасия', gsu: 'Бейский ГСУ', lat: 53.06290, lon: 90.99222, zone: 'VIII зона. Степь предгорий на обыкновенных и южных черноземах' };</t>
+  </si>
+  <si>
+    <t>data[8702] = { region: 'Красноярский край', gsu: 'Уярский ГСУ (Птицефабрика "Заря")', lat: 56.202734, lon: 92.685084, zone: 'V зона. Канско-Красноярская лесостепь' };</t>
+  </si>
+  <si>
+    <t>data[672] = { region: 'Республика Тыва', gsu: 'Пий-Хемский ГСУ', lat: 52.161376, lon: 93.808291, zone: 'III зона. Лесостепная' };</t>
   </si>
 </sst>
 </file>
@@ -278,17 +365,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{472710EE-1C52-46DF-A13C-226795169C88}" name="Таблица1" displayName="Таблица1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{DE1852A3-ACA2-4783-BD93-F0598BA3ABB0}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{472710EE-1C52-46DF-A13C-226795169C88}" name="Таблица1" displayName="Таблица1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{DE1852A3-ACA2-4783-BD93-F0598BA3ABB0}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2144334C-7D2D-4AC0-8462-A58E30133CF8}" name="id"/>
     <tableColumn id="2" xr3:uid="{A3F25661-3549-457B-8D4A-8132845BE418}" name="region"/>
     <tableColumn id="3" xr3:uid="{D4D6BAF0-F7A3-4661-863B-6FDB921CDF61}" name="gsu"/>
     <tableColumn id="4" xr3:uid="{A22A3BC2-F203-4ED4-8DC3-7A2A3F136AE6}" name="lat"/>
     <tableColumn id="5" xr3:uid="{D80A20B3-767C-4B60-83DF-777AFD0FCEC6}" name="lon"/>
-    <tableColumn id="6" xr3:uid="{04FB91E8-D943-4471-8F42-E2D0D340C1D4}" name="Столбец1" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{800828EB-6869-4CEA-B194-AA9DF4CBF06A}" name="zone"/>
+    <tableColumn id="6" xr3:uid="{04FB91E8-D943-4471-8F42-E2D0D340C1D4}" name="json" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,20 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="84.42578125" customWidth="1"/>
+    <col min="7" max="7" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,10 +673,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>65</v>
       </c>
@@ -606,12 +695,14 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[65] = { region: 'Красноярский край', gsu: 'Дзержинский ГСУ', lat: 56.78462, lon: 95.25112 };</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68</v>
       </c>
@@ -627,12 +718,14 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[68] = { region: 'Красноярский край', gsu: 'Казачинский ГСУ', lat: 57.58779, lon: 92.87861 };</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70</v>
       </c>
@@ -648,12 +741,14 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[70] = { region: 'Красноярский край', gsu: 'Канский ГСУ', lat: 56.03846, lon: 95.80644 };</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>803</v>
       </c>
@@ -669,12 +764,14 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[803] = { region: 'Красноярский край', gsu: 'Восточно-Сибирский ГСУ', lat: 56.36002, lon: 90.49376 };</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71</v>
       </c>
@@ -682,20 +779,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[71] = { region: 'Красноярский край', gsu: 'Каратузский ГСУ', lat: 53.63657, lon: 92.75758 };</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>73</v>
       </c>
@@ -703,20 +802,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[73] = { region: 'Красноярский край', gsu: 'Краснотуранский ГСУ', lat: 54.18743, lon: 92.09193 };</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>76</v>
       </c>
@@ -724,20 +825,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[76] = { region: 'Красноярский край', gsu: 'Минусинский ГСУ', lat: 53.68700, lon: 92.10517 };</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>77</v>
       </c>
@@ -745,20 +848,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[77] = { region: 'Красноярский край', gsu: 'Назаровский ГСУ', lat: 55.73115, lon: 90.00579 };</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>78</v>
       </c>
@@ -766,20 +871,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[78] = { region: 'Красноярский край', gsu: 'Новоселовский ГСУ', lat: 55.04879, lon: 91.00266 };</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -787,20 +894,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[79] = { region: 'Красноярский край', gsu: 'Саянский ГСУ', lat: 55.28785, lon: 94.97179 };</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81</v>
       </c>
@@ -808,20 +917,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[81] = { region: 'Красноярский край', gsu: 'Сухобузимский ГСУ', lat: 56.52380, lon: 93.01264 };</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>85</v>
       </c>
@@ -829,20 +940,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[85] = { region: 'Красноярский край', gsu: 'Ужурский ГСУ', lat: 55.16488, lon: 89.76509 };</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>87</v>
       </c>
@@ -850,41 +963,45 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[87] = { region: 'Красноярский край', gsu: 'Уярский ГСУ', lat: 55.82482, lon: 94.51003 };</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[88] = { region: 'Республика Хакасия', gsu: 'Ширинский ГСУ', lat: 54.76515, lon: 89.98396 };</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>89</v>
       </c>
@@ -892,20 +1009,22 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[89] = { region: 'Красноярский край', gsu: 'Шушенский овощной ГСУ', lat: 53.29726, lon: 91.87155 };</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>728</v>
       </c>
@@ -913,41 +1032,45 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[728] = { region: 'Красноярский край', gsu: 'Шушенский плодово-ягодный ГСУ', lat: 53.06356, lon: 91.90596 };</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[62] = { region: 'Республика Хакасия', gsu: 'Бейский ГСУ', lat: 53.06290, lon: 90.99222 };</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8702</v>
       </c>
@@ -955,38 +1078,42 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[8702] = { region: 'Красноярский край', gsu: 'Уярский ГСУ (Птицефабрика "Заря")', lat: 56.202734, lon: 92.685084 };</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>672</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f>_xlfn.CONCAT("data[",Таблица1[[#This Row],[id]],"] = { region: '",Таблица1[[#This Row],[region]],"', gsu: '",Таблица1[[#This Row],[gsu]],"', lat: ",Таблица1[[#This Row],[lat]],", lon: ",Таблица1[[#This Row],[lon]]," };")</f>
-        <v>data[672] = { region: 'Республика Тыва', gsu: 'Пий-Хемский ГСУ', lat: 52.161376, lon: 93.808291 };</v>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
